--- a/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Jeevanprakash H S Old Jewergi Road</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -508,7 +518,8 @@
           <t>ANILKUMAR DHOTRE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Govt. Practising high school Kalaburagi South</t>
         </is>
@@ -535,7 +546,8 @@
           <t>ANILKUMAR R DESAI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>G H S Tarafile Kalaburagi South</t>
         </is>
@@ -564,6 +576,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. High School Pattan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -591,6 +608,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S MadanaSedam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -618,6 +640,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S MannurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -643,7 +670,8 @@
           <t>CHANDRAKANT G SAWATHKAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>N V Girls H S Kalaburagi South</t>
         </is>
@@ -672,6 +700,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Milind High SchoolVidya Nagar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -699,6 +732,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Kudal Sangam High SchoolJewargi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -726,6 +764,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S HosurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -752,7 +795,8 @@
           <t>ELIZABETH JOSEPH</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Kalaburagi</t>
         </is>
@@ -781,6 +825,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Station GanagapurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -808,6 +857,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School AinapurChincholi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -835,6 +889,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S Khanadal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -862,6 +921,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G U H S KodaliChincholli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -887,7 +951,8 @@
           <t>JAGANNATH M S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>G H S Nandur (K) Kalaburagi South</t>
         </is>
@@ -916,6 +981,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Afzalapur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -943,6 +1013,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. H S Bankalaga</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Afzalpur</t>
         </is>
       </c>
@@ -958,7 +1033,8 @@
           <t>Kalaburagi.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Kalaburagi</t>
         </is>
@@ -986,7 +1062,8 @@
           <t>KAUSER SULTANA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Kalaburagi South</t>
         </is>
@@ -1015,6 +1092,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Sri. J V V S High School BalurigiAfzalpur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1042,6 +1124,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S DonagaonChittapur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1069,6 +1156,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>R G H S ChigaralliJewargi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1096,6 +1188,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S NagardalaiChincholi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1123,6 +1220,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Adaki Sedam</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1150,6 +1252,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G G H S Sedam</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>kalaburagi</t>
         </is>
       </c>
@@ -1177,6 +1284,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Indiragandhi M High School Brahamapur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Kalaburagi South</t>
         </is>
       </c>
@@ -1204,6 +1316,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>N V Vidyaniketan High School Venkatesh Nagar</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1231,6 +1348,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S Afzalpur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1258,6 +1380,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S KolkundaSedam</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1285,6 +1412,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. High SchoolMedakSedam</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1310,7 +1442,8 @@
           <t>RAMESH T N</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>M K H S Shahabazar Kalaburagi</t>
         </is>
@@ -1339,6 +1472,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. High School Farhatabad</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1366,6 +1504,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Jevargi Colony</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Kalaburagi South</t>
         </is>
       </c>
@@ -1393,6 +1536,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High SchoolSindgi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1420,6 +1568,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G G H S Jagat</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kalaburagi South</t>
         </is>
       </c>
@@ -1445,7 +1598,8 @@
           <t>ROOPADEVI M KALLUR</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Sagameshwar H S Kalaburagi</t>
         </is>
@@ -1471,7 +1625,8 @@
           <t>RUKHSANA PARVEEN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>RUKHSANA PARVEE</t>
         </is>
@@ -1489,6 +1644,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>G H S Boys Aland</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Kalaburagi</t>
         </is>
@@ -1509,7 +1669,8 @@
           <t>S S POLICE PATIL</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>V T S (Rotary Club) H S Kalaburagi</t>
         </is>
@@ -1538,6 +1699,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>M S S P HSSirnoor</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1565,6 +1731,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Mahadevi Girls High School Sharannagar</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1592,6 +1763,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Sri S S High SchoolSavalagi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1619,6 +1795,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Sri Chowdeshwar High SchoolBrahampur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1646,6 +1827,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Sri. Sevanikltan High School</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Melkunda (B) Kalaburagi South</t>
         </is>
       </c>
@@ -1671,7 +1857,8 @@
           <t>SHIVASHANKAR V HUGUR</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>N V High (Boys) Kalaburagi South</t>
         </is>
@@ -1700,6 +1887,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. H S Gour(B) Afzalpur taluk</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1727,6 +1919,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S Hunasihadgil</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Kalaburagi South</t>
         </is>
       </c>
@@ -1751,6 +1948,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S ShellagiChittapur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1778,6 +1980,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Goutam High School</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1805,6 +2012,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S ManoorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1832,6 +2044,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. Girls High SchoolSulepethChincholi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1859,6 +2076,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Govt. P U College (Boys) Chincholi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1886,6 +2108,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Govt. High School MashalAfzalpur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1913,6 +2140,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Ratnasagar Girls H SC I B Colony</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1936,6 +2168,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>G H S Gudur (SA) Jewargi</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Kalaburagi</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,6 @@
           <t>ANILKUMAR DHOTRE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Govt. Practising high school Kalaburagi South</t>
@@ -546,7 +545,6 @@
           <t>ANILKUMAR R DESAI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>G H S Tarafile Kalaburagi South</t>
@@ -581,7 +579,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -613,7 +611,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -645,7 +643,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -670,7 +668,6 @@
           <t>CHANDRAKANT G SAWATHKAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>N V Girls H S Kalaburagi South</t>
@@ -705,7 +702,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -737,7 +734,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -769,7 +766,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -795,10 +792,9 @@
           <t>ELIZABETH JOSEPH</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -830,7 +826,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -862,7 +858,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -894,7 +890,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -926,7 +922,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -951,7 +947,6 @@
           <t>JAGANNATH M S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>G H S Nandur (K) Kalaburagi South</t>
@@ -986,7 +981,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1033,10 +1028,9 @@
           <t>Kalaburagi.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1056,6 @@
           <t>KAUSER SULTANA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>Kalaburagi South</t>
@@ -1097,7 +1090,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1122,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1154,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1186,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1218,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1314,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1346,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1378,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1410,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1435,6 @@
           <t>RAMESH T N</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>M K H S Shahabazar Kalaburagi</t>
@@ -1477,7 +1469,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1533,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1590,6 @@
           <t>ROOPADEVI M KALLUR</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Sagameshwar H S Kalaburagi</t>
@@ -1625,7 +1616,6 @@
           <t>RUKHSANA PARVEEN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>RUKHSANA PARVEE</t>
@@ -1650,7 +1640,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1659,6 @@
           <t>S S POLICE PATIL</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>V T S (Rotary Club) H S Kalaburagi</t>
@@ -1704,7 +1693,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1725,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1757,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1789,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1846,6 @@
           <t>SHIVASHANKAR V HUGUR</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>N V High (Boys) Kalaburagi South</t>
@@ -1892,7 +1880,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1941,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1973,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2005,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2037,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2069,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2101,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2133,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2162,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-07-21)_54_4.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Govt. Practising high school Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>G H S Tarafile Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N V Girls H S Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>G H S Nandur (K) Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Afzalpur</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>M K H S Shahabazar Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sagameshwar H S Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>V T S (Rotary Club) H S Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Melkunda (B) Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N V High (Boys) Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Kalaburagi South</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
